--- a/xlsx/FR/income_FR_comp.xlsx
+++ b/xlsx/FR/income_FR_comp.xlsx
@@ -386,13 +386,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.227501397428731</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="C2" t="n">
-        <v>0.204944555347326</v>
+        <v>0.272382908202429</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2034</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3">
@@ -400,13 +400,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.277808831749581</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="C3" t="n">
-        <v>0.244554338774632</v>
+        <v>0.241872863372709</v>
       </c>
       <c r="D3" t="n">
-        <v>0.239</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4">
@@ -414,13 +414,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.279485746226942</v>
+        <v>0.225108225108225</v>
       </c>
       <c r="C4" t="n">
-        <v>0.248694436345023</v>
+        <v>0.221679299468981</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2439</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5">
@@ -428,13 +428,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.215204024594746</v>
+        <v>0.138528138528139</v>
       </c>
       <c r="C5" t="n">
-        <v>0.301806669533019</v>
+        <v>0.264064928955882</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3137</v>
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/FR/income_FR_comp.xlsx
+++ b/xlsx/FR/income_FR_comp.xlsx
@@ -386,10 +386,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.333333333333333</v>
+        <v>0.326923076923077</v>
       </c>
       <c r="C2" t="n">
-        <v>0.272382908202429</v>
+        <v>0.267480051127273</v>
       </c>
       <c r="D2" t="n">
         <v>0.25</v>
@@ -400,10 +400,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.303030303030303</v>
+        <v>0.307692307692308</v>
       </c>
       <c r="C3" t="n">
-        <v>0.241872863372709</v>
+        <v>0.241985331204429</v>
       </c>
       <c r="D3" t="n">
         <v>0.25</v>
@@ -414,10 +414,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.225108225108225</v>
+        <v>0.222027972027972</v>
       </c>
       <c r="C4" t="n">
-        <v>0.221679299468981</v>
+        <v>0.236997666798342</v>
       </c>
       <c r="D4" t="n">
         <v>0.25</v>
@@ -428,10 +428,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.138528138528139</v>
+        <v>0.143356643356643</v>
       </c>
       <c r="C5" t="n">
-        <v>0.264064928955882</v>
+        <v>0.253536950869956</v>
       </c>
       <c r="D5" t="n">
         <v>0.25</v>
